--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12401.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12401.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12401.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12401.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,241 +938,6 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Khamzin</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Vadim</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>08.04.1972</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Gai</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>009</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Haswieh</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Mohammad</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>06-07-1998</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Damascus suburb</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Syrian Arab Republic</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Duisburg</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Awet</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Teklebrhan</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20-01-1993</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Daero</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Eritrea</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Hagen</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Mohammad</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Gumaa</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10-11-1995</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Qamishli</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Syrian Arab Republic</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Witten</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Adaikkan</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Manikandan</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16-02-1991</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>TV Kulam</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Lippstadt</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12401.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12401.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,6 +938,241 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Khamzin</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vadim</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08.04.1972</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Gai</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Haswieh</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mohammad</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>06-07-1998</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Damascus suburb</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Duisburg</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Awet</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Teklebrhan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20-01-1993</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Daero</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Eritrea</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Hagen</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mohammad</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gumaa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10-11-1995</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Qamishli</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Witten</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Adaikkan</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Manikandan</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16-02-1991</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TV Kulam</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Lippstadt</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
